--- a/xzsBot/data/birthday_2022.xlsx
+++ b/xzsBot/data/birthday_2022.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\OneDrive - 南方科技大学\Codes\xzsBot\xzsBot\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5A69F-F65C-4898-9660-C680084FBCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -231,12 +238,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11.000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,29 +272,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,295 +301,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -779,23 +512,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="14.421875"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -819,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.26</v>
       </c>
@@ -827,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -843,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -859,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -867,7 +602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -875,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -883,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="28.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -891,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -899,7 +634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,7 +642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -915,7 +650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -923,7 +658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -931,7 +666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -939,7 +674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -947,7 +682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -955,7 +690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -963,7 +698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -971,7 +706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -979,7 +714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -987,7 +722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -995,7 +730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1003,7 +738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1011,7 +746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1019,7 +754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10.19</v>
       </c>
@@ -1027,7 +762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1035,7 +770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1051,23 +786,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1075,7 +810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1083,66 +818,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>12.210000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="B58" s="1"/>
-    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>